--- a/tables/ProsCons2.xlsx
+++ b/tables/ProsCons2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAlstad\Documents\Github_C\e-device2\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAlstad\Documents\Github_C\e-deviceIEP\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81301080-2842-4DC3-9C43-5DF160BB619F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09ECAB87-5C11-489F-9D61-53A4336CB668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8580" yWindow="-15900" windowWidth="21165" windowHeight="14085" xr2:uid="{46186D46-7614-4C3B-A9CF-A71614DFEBF1}"/>
+    <workbookView xWindow="-9405" yWindow="-14400" windowWidth="24060" windowHeight="13515" xr2:uid="{46186D46-7614-4C3B-A9CF-A71614DFEBF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,9 +83,6 @@
     <t>**Pros:**  Can be run on all platform types: ios, Android, and PC (web only)</t>
   </si>
   <si>
-    <t>**Pros:**Low-code/No-code; customizable; Uses Excel-like function; AI support</t>
-  </si>
-  <si>
     <t>**Cons:**  Only works on Android</t>
   </si>
   <si>
@@ -102,17 +99,10 @@
     <t>**Pros:** PDF forms are usable on all platform types; PDF forms may be used on mobile apps using Adobe Reader app</t>
   </si>
   <si>
-    <t>**Pros:**low security risk</t>
-  </si>
-  <si>
     <t xml:space="preserve">**Pros:**  Built on local Access db so compatible will all M.S. connectivity
 **Cons:** No built in Cloud connectivity; no built in API </t>
   </si>
   <si>
-    <t>**Pros:**R-based PDF scraped data can be formated in R and transferred remotely with R-based API protocols;
-**Cons:** All data configuratons must be programmed</t>
-  </si>
-  <si>
     <t xml:space="preserve">**Cons:**  No photo options; no options to connect to external sensors </t>
   </si>
   <si>
@@ -139,12 +129,6 @@
     <t>**Pros:**  Can be run on all platform types: ios, Android, and Window (including off-line)</t>
   </si>
   <si>
-    <t>**Pros:**security audits for projects with aerospace company, toyota, verison, telegraph</t>
-  </si>
-  <si>
-    <t>**Pros:**LAN based system so low security risk</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 **Cons:** API connection to Cloud base data or transfer needs to be customized</t>
   </si>
@@ -152,9 +136,6 @@
     <t>**Pros:**  Connects directly to many types of external sensors</t>
   </si>
   <si>
-    <t xml:space="preserve">**Pros:**Designed specifically for fish surveys  </t>
-  </si>
-  <si>
     <t xml:space="preserve">**Pros:**  Customized form specific to users application; Designed specifically for fish surveys  </t>
   </si>
   <si>
@@ -174,16 +155,35 @@
   </si>
   <si>
     <t>Moderate</t>
-  </si>
-  <si>
-    <t>**Pros:**Least expensive approach</t>
   </si>
   <si>
     <t>One-time configuration fee (~$2000)
 **Cons:** One person company; questions about future company composition</t>
   </si>
   <si>
-    <t>**Cons**: difficult to configure desired format to view/edit data 'on-the-fly'  in the field</t>
+    <t>**Pros:** LAN based system so low security risk</t>
+  </si>
+  <si>
+    <t>**Pros:** security audits for projects with aerospace company, toyota, verison, telegraph</t>
+  </si>
+  <si>
+    <t>**Cons**:  Difficult to configure desired format to view/edit data 'on-the-fly'  in the field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Pros:** Designed specifically for fish surveys  </t>
+  </si>
+  <si>
+    <t>**Pros:** R-based PDF scraped data can be formated in R and transferred remotely with R-based API protocols;
+**Cons:** All data configuratons must be programmed</t>
+  </si>
+  <si>
+    <t>**Pros:** low security risk</t>
+  </si>
+  <si>
+    <t>**Pros:** Least expensive approach</t>
+  </si>
+  <si>
+    <t>**Pros:** Low-code/No-code; customizable; Uses Excel-like function; AI support</t>
   </si>
 </sst>
 </file>
@@ -540,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2A9D85-F5DE-46AF-938B-1B8F725A2C31}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,48 +580,48 @@
     </row>
     <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -629,22 +629,22 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -652,13 +652,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -666,22 +666,22 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -689,19 +689,19 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -709,22 +709,22 @@
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/tables/ProsCons2.xlsx
+++ b/tables/ProsCons2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAlstad\Documents\Github_C\e-deviceIEP\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09ECAB87-5C11-489F-9D61-53A4336CB668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82B35CA-FB13-40AC-8790-F4151391A186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9405" yWindow="-14400" windowWidth="24060" windowHeight="13515" xr2:uid="{46186D46-7614-4C3B-A9CF-A71614DFEBF1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46186D46-7614-4C3B-A9CF-A71614DFEBF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,9 +74,6 @@
     <t xml:space="preserve">PDF/R-scraping </t>
   </si>
   <si>
-    <t xml:space="preserve">**Pros:** Geo-referencing of all objects; map layers available; </t>
-  </si>
-  <si>
     <t xml:space="preserve">**Pros:**  Provides many types of API connections e.g., to SQL, OneDrive </t>
   </si>
   <si>
@@ -89,20 +86,12 @@
     <t>**Cons:**  Not as many options to control PDF form input</t>
   </si>
   <si>
-    <t>**Pros:**  Intuitive form-building interface; Auto-formating for modern look; 
-**Cons:**  Complex design requires coding; Limits to nesting data</t>
-  </si>
-  <si>
     <t>**Cons:**  Only works on Windows</t>
   </si>
   <si>
     <t>**Pros:** PDF forms are usable on all platform types; PDF forms may be used on mobile apps using Adobe Reader app</t>
   </si>
   <si>
-    <t xml:space="preserve">**Pros:**  Built on local Access db so compatible will all M.S. connectivity
-**Cons:** No built in Cloud connectivity; no built in API </t>
-  </si>
-  <si>
     <t xml:space="preserve">**Cons:**  No photo options; no options to connect to external sensors </t>
   </si>
   <si>
@@ -116,14 +105,6 @@
   </si>
   <si>
     <t>**Cons:** Even though Power Apps can be run on a Windows system (on/off-line), it cannot read in data from local drive</t>
-  </si>
-  <si>
-    <t>**Pros:**  Power Platform connection provide easy connectivity to SQL, OneDrive databases.
-**Cons:** Even though Power Apps can be run on a Windows system (on/off-line), it cannot read in data from local drive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**Pros:** It is possible to control external devices using PowerApps
-**Cons:** An Azure license is required to connect to external devices (not available with Power Apps for Government Plans) </t>
   </si>
   <si>
     <t>**Pros:**  Can be run on all platform types: ios, Android, and Window (including off-line)</t>
@@ -157,33 +138,58 @@
     <t>Moderate</t>
   </si>
   <si>
+    <t>**Pros:** LAN based system so low security risk</t>
+  </si>
+  <si>
+    <t>**Pros:** security audits for projects with aerospace company, toyota, verison, telegraph</t>
+  </si>
+  <si>
+    <t>**Cons**:  Difficult to configure desired format to view/edit data 'on-the-fly'  in the field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Pros:** Designed specifically for fish surveys  </t>
+  </si>
+  <si>
+    <t>**Pros:** low security risk</t>
+  </si>
+  <si>
+    <t>**Pros:** Least expensive approach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Pros:** It is possible to control external devices using PowerApps
+--- --- --- ---
+**Cons:** An Azure license is required to connect to external devices (not available with Power Apps for Government Plans) </t>
+  </si>
+  <si>
+    <t>**Pros:**  Intuitive form-building interface; Auto-formating for modern look
+--- --- --- ---
+**Cons:**  Complex design requires coding; Limits to nesting data</t>
+  </si>
+  <si>
+    <t>**Pros:** R-based PDF scraped data can be formated in R and transferred remotely with R-based API protocols
+--- --- --- ---
+**Cons:** All data configuratons must be programmed</t>
+  </si>
+  <si>
+    <t>**Pros:**  Power Platform connection provide easy connectivity to SQL, OneDrive databases
+--- --- --- ---
+**Cons:** Even though Power Apps can be run on a Windows system (on/off-line), it cannot read in data from local drive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Pros:** Geo-referencing of all objects; map layers available </t>
+  </si>
+  <si>
+    <t>**Pros:** Low-code/ No-code; customizable; Uses Excel-like function; AI support</t>
+  </si>
+  <si>
     <t>One-time configuration fee (~$2000)
+ --- --- --- ---
 **Cons:** One person company; questions about future company composition</t>
   </si>
   <si>
-    <t>**Pros:** LAN based system so low security risk</t>
-  </si>
-  <si>
-    <t>**Pros:** security audits for projects with aerospace company, toyota, verison, telegraph</t>
-  </si>
-  <si>
-    <t>**Cons**:  Difficult to configure desired format to view/edit data 'on-the-fly'  in the field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**Pros:** Designed specifically for fish surveys  </t>
-  </si>
-  <si>
-    <t>**Pros:** R-based PDF scraped data can be formated in R and transferred remotely with R-based API protocols;
-**Cons:** All data configuratons must be programmed</t>
-  </si>
-  <si>
-    <t>**Pros:** low security risk</t>
-  </si>
-  <si>
-    <t>**Pros:** Least expensive approach</t>
-  </si>
-  <si>
-    <t>**Pros:** Low-code/No-code; customizable; Uses Excel-like function; AI support</t>
+    <t xml:space="preserve">**Pros:**  Built on local Access db so compatible will all M.S. connectivity
+--- --- --- ---
+**Cons:** No built-in Cloud connectivity; no built-in API </t>
   </si>
 </sst>
 </file>
@@ -540,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2A9D85-F5DE-46AF-938B-1B8F725A2C31}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,71 +586,71 @@
     </row>
     <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>36</v>
-      </c>
     </row>
-    <row r="3" spans="1:7" ht="135" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -652,36 +658,36 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -689,42 +695,42 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/tables/ProsCons2.xlsx
+++ b/tables/ProsCons2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAlstad\Documents\Github_C\e-deviceIEP\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82B35CA-FB13-40AC-8790-F4151391A186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF546D6-0699-4139-BF1F-ABB83DC4C182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46186D46-7614-4C3B-A9CF-A71614DFEBF1}"/>
+    <workbookView xWindow="16335" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{46186D46-7614-4C3B-A9CF-A71614DFEBF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
   <si>
     <t>Fulcrum</t>
   </si>
@@ -95,12 +95,6 @@
     <t xml:space="preserve">**Cons:**  No photo options; no options to connect to external sensors </t>
   </si>
   <si>
-    <t xml:space="preserve">**Pros:**  Can connect to external sensors; uses local area network </t>
-  </si>
-  <si>
-    <t>**Cons:**  Cannot read in data from local drive; cannot connect to sensors directly</t>
-  </si>
-  <si>
     <t>**Cons:** Cannot connect to sensors directly</t>
   </si>
   <si>
@@ -110,10 +104,6 @@
     <t>**Pros:**  Can be run on all platform types: ios, Android, and Window (including off-line)</t>
   </si>
   <si>
-    <t xml:space="preserve">
-**Cons:** API connection to Cloud base data or transfer needs to be customized</t>
-  </si>
-  <si>
     <t>**Pros:**  Connects directly to many types of external sensors</t>
   </si>
   <si>
@@ -127,9 +117,6 @@
   </si>
   <si>
     <t>ESRI Survey123</t>
-  </si>
-  <si>
-    <t>**Cons:** Not FedRAMP certified</t>
   </si>
   <si>
     <t>Expensive; but well established CA state license agreement</t>
@@ -166,11 +153,6 @@
 **Cons:**  Complex design requires coding; Limits to nesting data</t>
   </si>
   <si>
-    <t>**Pros:** R-based PDF scraped data can be formated in R and transferred remotely with R-based API protocols
---- --- --- ---
-**Cons:** All data configuratons must be programmed</t>
-  </si>
-  <si>
     <t>**Pros:**  Power Platform connection provide easy connectivity to SQL, OneDrive databases
 --- --- --- ---
 **Cons:** Even though Power Apps can be run on a Windows system (on/off-line), it cannot read in data from local drive</t>
@@ -190,6 +172,41 @@
     <t xml:space="preserve">**Pros:**  Built on local Access db so compatible will all M.S. connectivity
 --- --- --- ---
 **Cons:** No built-in Cloud connectivity; no built-in API </t>
+  </si>
+  <si>
+    <t>**Pros:** Provides user-friendly form building GUI that can be expanded/customized with Java coding.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Cons:**  </t>
+  </si>
+  <si>
+    <t>**Pros:**  Can connect to external sensors; uses local area network 
+--- --- --- ---</t>
+  </si>
+  <si>
+    <t>**Pros:** Provides API potential for custom data interface with external sensors
+--- --- --- ---
+**Cons:**  Cannot read in data from local drive; No built in tool for connecting to sensors directly</t>
+  </si>
+  <si>
+    <t>**Pros:** Data synch as relational tables to a MySQL database on cloud server
+--- --- --- ---
+**Cons:**  Cannot backup to local laptop (when internet not available)</t>
+  </si>
+  <si>
+    <t>**Pros:** Works on iOS/Android phones 
+--- --- --- ---
+**Cons:** Some custom Java options do not work on iOS devices</t>
+  </si>
+  <si>
+    <t>**Pros:** Azure cloud serive is FedRAMP certified
+--- --- --- --- 
+**Cons:** Pendrogon tool does not have security  validations available</t>
+  </si>
+  <si>
+    <t>**Pros:** R-based PDF scraped data could be further processed in R
+--- --- --- ---
+**Cons:** All data configuratons must be coded by scratch requiring programming skills</t>
   </si>
 </sst>
 </file>
@@ -546,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2A9D85-F5DE-46AF-938B-1B8F725A2C31}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,48 +603,48 @@
     </row>
     <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="135" x14ac:dyDescent="0.25">
@@ -635,36 +652,45 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="237.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>45</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="135" x14ac:dyDescent="0.25">
@@ -672,42 +698,42 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="135" x14ac:dyDescent="0.25">
@@ -718,7 +744,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>18</v>
@@ -727,10 +753,10 @@
         <v>17</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/tables/ProsCons2.xlsx
+++ b/tables/ProsCons2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAlstad\Documents\Github_C\e-deviceIEP\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF546D6-0699-4139-BF1F-ABB83DC4C182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B01016-EF52-4A53-8773-A5CB7DAB0A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16335" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{46186D46-7614-4C3B-A9CF-A71614DFEBF1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
   <si>
     <t>Fulcrum</t>
   </si>
@@ -177,13 +177,6 @@
     <t>**Pros:** Provides user-friendly form building GUI that can be expanded/customized with Java coding.</t>
   </si>
   <si>
-    <t xml:space="preserve">**Cons:**  </t>
-  </si>
-  <si>
-    <t>**Pros:**  Can connect to external sensors; uses local area network 
---- --- --- ---</t>
-  </si>
-  <si>
     <t>**Pros:** Provides API potential for custom data interface with external sensors
 --- --- --- ---
 **Cons:**  Cannot read in data from local drive; No built in tool for connecting to sensors directly</t>
@@ -207,6 +200,9 @@
     <t>**Pros:** R-based PDF scraped data could be further processed in R
 --- --- --- ---
 **Cons:** All data configuratons must be coded by scratch requiring programming skills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Pros:**  Can connect to external sensors; uses local area network </t>
   </si>
 </sst>
 </file>
@@ -563,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2A9D85-F5DE-46AF-938B-1B8F725A2C31}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,16 +674,16 @@
         <v>42</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>28</v>
@@ -704,7 +700,7 @@
         <v>41</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>16</v>
@@ -723,9 +719,6 @@
       <c r="B7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="D7" s="1" t="s">
         <v>22</v>
       </c>
@@ -744,7 +737,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>18</v>

--- a/tables/ProsCons2.xlsx
+++ b/tables/ProsCons2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAlstad\Documents\Github_C\e-deviceIEP\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B01016-EF52-4A53-8773-A5CB7DAB0A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1A2353-0417-48CC-A41E-82C4851C5799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16335" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{46186D46-7614-4C3B-A9CF-A71614DFEBF1}"/>
+    <workbookView xWindow="-7560" yWindow="-13665" windowWidth="21600" windowHeight="11385" xr2:uid="{46186D46-7614-4C3B-A9CF-A71614DFEBF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,9 +83,6 @@
     <t>**Cons:**  Only works on Android</t>
   </si>
   <si>
-    <t>**Cons:**  Not as many options to control PDF form input</t>
-  </si>
-  <si>
     <t>**Cons:**  Only works on Windows</t>
   </si>
   <si>
@@ -203,6 +200,12 @@
   </si>
   <si>
     <t xml:space="preserve">**Pros:**  Can connect to external sensors; uses local area network </t>
+  </si>
+  <si>
+    <t>**Cons:**  Requires very heavey code and advanced R coding skill; 
+no support available;
+R scrape function only extract text-based data;
+tablulizer library can be difficult to install;</t>
   </si>
 </sst>
 </file>
@@ -559,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2A9D85-F5DE-46AF-938B-1B8F725A2C31}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,48 +602,48 @@
     </row>
     <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="135" x14ac:dyDescent="0.25">
@@ -648,22 +651,22 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="237.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -671,22 +674,22 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="135" x14ac:dyDescent="0.25">
@@ -694,22 +697,22 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -717,16 +720,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="135" x14ac:dyDescent="0.25">
@@ -734,22 +737,22 @@
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
